--- a/docs/画面項目定義書/virtual_network_management/mo_virtual_network_edit.xlsx
+++ b/docs/画面項目定義書/virtual_network_management/mo_virtual_network_edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_network_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\virtual_network_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C1A963-5C69-48E1-AA53-FB1959C0D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54570172-904A-499E-A2FF-4A5D8C286568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="2865" windowWidth="15465" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>日本工学院</t>
   </si>
@@ -381,6 +381,10 @@
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -695,7 +699,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,30 +792,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,21 +1262,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.90625" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="42.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1287,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1298,7 +1296,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1307,7 +1305,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1316,11 +1314,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:7" ht="13.5">
+      <c r="A5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1329,11 +1327,11 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
@@ -1342,7 +1340,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1351,7 +1349,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1391,16 +1389,17 @@
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="25">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="36" t="s">
         <v>28</v>
       </c>
+      <c r="D10" s="36"/>
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1434,7 +1433,9 @@
       <c r="C12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="29" t="s">
         <v>16</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="28">
         <v>5</v>
       </c>
@@ -1453,11 +1454,12 @@
       <c r="C13" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="D13" s="36"/>
       <c r="E13" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1467,6 +1469,7 @@
       <c r="C14" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="D14" s="36"/>
       <c r="E14" s="22" t="s">
         <v>18</v>
       </c>
@@ -1475,11 +1478,14 @@
       <c r="A15" s="28">
         <v>7</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="39" t="s">
         <v>25</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>16</v>
@@ -1488,7 +1494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="28">
         <v>11</v>
       </c>
@@ -1498,17 +1504,21 @@
       <c r="C16" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="D16" s="36"/>
       <c r="E16" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24">
       <c r="A17" s="28"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="39" t="s">
         <v>25</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>16</v>
@@ -1517,7 +1527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28">
         <v>13</v>
       </c>
@@ -1537,11 +1547,14 @@
       <c r="A19" s="28">
         <v>14</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="39" t="s">
         <v>38</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>16</v>
@@ -1550,21 +1563,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28">
         <v>15</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="28">
         <v>13</v>
       </c>
@@ -1583,7 +1597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="25">
         <v>14</v>
       </c>
@@ -1600,7 +1614,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1619,7 +1633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="25">
         <v>16</v>
       </c>
@@ -1638,20 +1652,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="37" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1665,6 +1680,7 @@
       <c r="C26" s="23" t="s">
         <v>28</v>
       </c>
+      <c r="D26" s="36"/>
       <c r="E26" s="24" t="s">
         <v>49</v>
       </c>
@@ -1672,7 +1688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="21">
         <v>19</v>
       </c>
@@ -1683,7 +1699,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -1694,7 +1710,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="21">
         <v>21</v>
       </c>
